--- a/Tenant Master.xlsx
+++ b/Tenant Master.xlsx
@@ -176,13 +176,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,7 +209,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="A3:B5 F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,7 +279,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,7 +319,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B5"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,6 +442,9 @@
       <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Tenant Master.xlsx
+++ b/Tenant Master.xlsx
@@ -212,7 +212,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
   </cols>
@@ -282,7 +282,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -322,7 +322,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -383,10 +383,10 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
